--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130872721</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130872703</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>130872705</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>130872708</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>130872722</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>130872704</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>130983073</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>130983599</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>130983055</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130979103</v>
+        <v>130983072</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570739</v>
+        <v>570809</v>
       </c>
       <c r="R12" t="n">
-        <v>6736418</v>
+        <v>6736404</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1778,39 +1778,50 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130983072</v>
+        <v>130979103</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1842,13 +1853,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570809</v>
+        <v>570739</v>
       </c>
       <c r="R13" t="n">
-        <v>6736404</v>
+        <v>6736418</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1875,40 +1886,29 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -1918,7 +1918,7 @@
         <v>130983601</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>130983071</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>130983619</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>130983074</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>130979082</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>130979102</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>130979101</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983071</v>
+        <v>130979082</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570817</v>
+        <v>570952</v>
       </c>
       <c r="R15" t="n">
-        <v>6736417</v>
+        <v>6736563</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2103,19 +2103,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>08:53</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>08:53</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2124,26 +2119,25 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983619</v>
+        <v>130983071</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2174,14 +2168,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570825</v>
+        <v>570817</v>
       </c>
       <c r="R16" t="n">
-        <v>6736389</v>
+        <v>6736417</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2213,7 +2207,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2223,7 +2217,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2232,25 +2226,26 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983074</v>
+        <v>130983619</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2281,14 +2276,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570764</v>
+        <v>570825</v>
       </c>
       <c r="R17" t="n">
-        <v>6736425</v>
+        <v>6736389</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2320,7 +2315,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2330,7 +2325,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2339,29 +2334,28 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979082</v>
+        <v>130983074</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,21 +2363,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2393,13 +2387,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>570952</v>
+        <v>570764</v>
       </c>
       <c r="R18" t="n">
-        <v>6736563</v>
+        <v>6736425</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2426,14 +2420,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2442,18 +2441,19 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979082</v>
+        <v>130983071</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570952</v>
+        <v>570817</v>
       </c>
       <c r="R15" t="n">
-        <v>6736563</v>
+        <v>6736417</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2103,14 +2103,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>08:53</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2119,25 +2124,26 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983071</v>
+        <v>130983619</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2168,14 +2174,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570817</v>
+        <v>570825</v>
       </c>
       <c r="R16" t="n">
-        <v>6736417</v>
+        <v>6736389</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2207,7 +2213,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2217,7 +2223,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2226,26 +2232,25 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983619</v>
+        <v>130983074</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2276,14 +2281,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570825</v>
+        <v>570764</v>
       </c>
       <c r="R17" t="n">
-        <v>6736389</v>
+        <v>6736425</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2315,7 +2320,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2325,7 +2330,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2334,28 +2339,29 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983074</v>
+        <v>130979082</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2363,21 +2369,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2387,13 +2393,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>570764</v>
+        <v>570952</v>
       </c>
       <c r="R18" t="n">
-        <v>6736425</v>
+        <v>6736563</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2420,19 +2426,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>08:23</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>08:23</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2441,19 +2442,18 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -2035,7 +2035,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983071</v>
+        <v>130983619</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2066,14 +2066,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570817</v>
+        <v>570825</v>
       </c>
       <c r="R15" t="n">
-        <v>6736417</v>
+        <v>6736389</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2124,26 +2124,25 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983619</v>
+        <v>130983074</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2174,14 +2173,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570825</v>
+        <v>570764</v>
       </c>
       <c r="R16" t="n">
-        <v>6736389</v>
+        <v>6736425</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2213,7 +2212,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2223,7 +2222,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2232,25 +2231,26 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983074</v>
+        <v>130983071</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570764</v>
+        <v>570817</v>
       </c>
       <c r="R17" t="n">
-        <v>6736425</v>
+        <v>6736417</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130872721</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130872703</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>130872705</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>130872708</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>130872722</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>130872704</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>130983073</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130983072</v>
+        <v>130979103</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570809</v>
+        <v>570739</v>
       </c>
       <c r="R12" t="n">
-        <v>6736404</v>
+        <v>6736418</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1778,50 +1778,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979103</v>
+        <v>130983072</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1853,13 +1842,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570739</v>
+        <v>570809</v>
       </c>
       <c r="R13" t="n">
-        <v>6736418</v>
+        <v>6736404</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1886,29 +1875,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983619</v>
+        <v>130983071</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2066,14 +2066,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570825</v>
+        <v>570817</v>
       </c>
       <c r="R15" t="n">
-        <v>6736389</v>
+        <v>6736417</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2124,28 +2124,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983074</v>
+        <v>130983619</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2173,14 +2174,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570764</v>
+        <v>570825</v>
       </c>
       <c r="R16" t="n">
-        <v>6736425</v>
+        <v>6736389</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2212,7 +2213,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2222,7 +2223,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2231,29 +2232,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983071</v>
+        <v>130983074</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570817</v>
+        <v>570764</v>
       </c>
       <c r="R17" t="n">
-        <v>6736417</v>
+        <v>6736425</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2463,7 +2463,7 @@
         <v>130979102</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>130979101</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -1710,7 +1710,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130979103</v>
+        <v>130983072</v>
       </c>
       <c r="B12" t="n">
         <v>79244</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570739</v>
+        <v>570809</v>
       </c>
       <c r="R12" t="n">
-        <v>6736418</v>
+        <v>6736404</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1778,36 +1778,47 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130983072</v>
+        <v>130979103</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1842,13 +1853,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570809</v>
+        <v>570739</v>
       </c>
       <c r="R13" t="n">
-        <v>6736404</v>
+        <v>6736418</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1875,40 +1886,29 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983071</v>
+        <v>130979082</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570817</v>
+        <v>570952</v>
       </c>
       <c r="R15" t="n">
-        <v>6736417</v>
+        <v>6736563</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2103,19 +2103,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>08:53</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>08:53</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2124,26 +2119,25 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983619</v>
+        <v>130983071</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2174,14 +2168,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570825</v>
+        <v>570817</v>
       </c>
       <c r="R16" t="n">
-        <v>6736389</v>
+        <v>6736417</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2213,7 +2207,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2223,7 +2217,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2232,25 +2226,26 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983074</v>
+        <v>130983619</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2281,14 +2276,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570764</v>
+        <v>570825</v>
       </c>
       <c r="R17" t="n">
-        <v>6736425</v>
+        <v>6736389</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2320,7 +2315,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2330,7 +2325,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2339,29 +2334,28 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979082</v>
+        <v>130983074</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,21 +2363,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2393,13 +2387,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>570952</v>
+        <v>570764</v>
       </c>
       <c r="R18" t="n">
-        <v>6736563</v>
+        <v>6736425</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2426,14 +2420,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2442,18 +2441,19 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979082</v>
+        <v>130983071</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570952</v>
+        <v>570817</v>
       </c>
       <c r="R15" t="n">
-        <v>6736563</v>
+        <v>6736417</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2103,14 +2103,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>08:53</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2119,25 +2124,26 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983071</v>
+        <v>130983619</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2168,14 +2174,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570817</v>
+        <v>570825</v>
       </c>
       <c r="R16" t="n">
-        <v>6736417</v>
+        <v>6736389</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2207,7 +2213,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2217,7 +2223,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2226,26 +2232,25 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983619</v>
+        <v>130983074</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2276,14 +2281,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570825</v>
+        <v>570764</v>
       </c>
       <c r="R17" t="n">
-        <v>6736389</v>
+        <v>6736425</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2315,7 +2320,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2325,7 +2330,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2334,28 +2339,29 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983074</v>
+        <v>130979082</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2363,21 +2369,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2387,13 +2393,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>570764</v>
+        <v>570952</v>
       </c>
       <c r="R18" t="n">
-        <v>6736425</v>
+        <v>6736563</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2420,19 +2426,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>08:23</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>08:23</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2441,19 +2442,18 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983071</v>
+        <v>130979082</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570817</v>
+        <v>570952</v>
       </c>
       <c r="R15" t="n">
-        <v>6736417</v>
+        <v>6736563</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2103,19 +2103,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>08:53</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>08:53</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2124,26 +2119,25 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983619</v>
+        <v>130983071</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2174,14 +2168,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570825</v>
+        <v>570817</v>
       </c>
       <c r="R16" t="n">
-        <v>6736389</v>
+        <v>6736417</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2213,7 +2207,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2223,7 +2217,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2232,18 +2226,19 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2358,10 +2353,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979082</v>
+        <v>130983619</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,37 +2364,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>570952</v>
+        <v>570825</v>
       </c>
       <c r="R18" t="n">
-        <v>6736563</v>
+        <v>6736389</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2426,14 +2421,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>08:54</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2448,12 +2448,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979082</v>
+        <v>130983071</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570952</v>
+        <v>570817</v>
       </c>
       <c r="R15" t="n">
-        <v>6736563</v>
+        <v>6736417</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2103,14 +2103,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>08:53</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2119,25 +2124,26 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983071</v>
+        <v>130983619</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2168,14 +2174,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570817</v>
+        <v>570825</v>
       </c>
       <c r="R16" t="n">
-        <v>6736417</v>
+        <v>6736389</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2207,7 +2213,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2217,7 +2223,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2226,19 +2232,18 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2353,10 +2358,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983619</v>
+        <v>130979082</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2364,37 +2369,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>570825</v>
+        <v>570952</v>
       </c>
       <c r="R18" t="n">
-        <v>6736389</v>
+        <v>6736563</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2421,19 +2426,14 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>08:54</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>08:54</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2448,12 +2448,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 2045-2026 artfynd.xlsx
+++ b/artfynd/A 2045-2026 artfynd.xlsx
@@ -1362,7 +1362,7 @@
         <v>130983073</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130983072</v>
+        <v>130979103</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>570809</v>
+        <v>570739</v>
       </c>
       <c r="R12" t="n">
-        <v>6736404</v>
+        <v>6736418</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1778,50 +1778,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979103</v>
+        <v>130983072</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1853,13 +1842,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>570739</v>
+        <v>570809</v>
       </c>
       <c r="R13" t="n">
-        <v>6736418</v>
+        <v>6736404</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1886,29 +1875,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983071</v>
+        <v>130983074</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>570817</v>
+        <v>570764</v>
       </c>
       <c r="R15" t="n">
-        <v>6736417</v>
+        <v>6736425</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130983619</v>
+        <v>130983071</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Flytjärnsmyren, Dlr</t>
+          <t>Flytjärnsmyran, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>570825</v>
+        <v>570817</v>
       </c>
       <c r="R16" t="n">
-        <v>6736389</v>
+        <v>6736417</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2232,28 +2232,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983074</v>
+        <v>130983619</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2281,14 +2282,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Flytjärnsmyran, Dlr</t>
+          <t>Flytjärnsmyren, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>570764</v>
+        <v>570825</v>
       </c>
       <c r="R17" t="n">
-        <v>6736425</v>
+        <v>6736389</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2320,7 +2321,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2330,7 +2331,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:54</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2339,19 +2340,18 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2463,7 +2463,7 @@
         <v>130979102</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>130979101</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
